--- a/biology/Biochimie/Cytochrome/Cytochrome.xlsx
+++ b/biology/Biochimie/Cytochrome/Cytochrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cytochromes sont des coenzymes intermédiaires de la chaîne respiratoire. Ils ont comme caractéristique commune d'être constitués d'une porphyrine complexée avec un atome de fer ou de cuivre. C'est ce dernier qui confère au coenzyme ses propriétés oxydoréductrices en changeant de valence.
 Le couple oxydant/réducteur est le suivant : 
@@ -526,7 +538,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytochrome a
 Cytochrome a3
